--- a/biology/Médecine/Théophile-Ambroise_Laënnec/Théophile-Ambroise_Laënnec.xlsx
+++ b/biology/Médecine/Théophile-Ambroise_Laënnec/Théophile-Ambroise_Laënnec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile-Ambroise_La%C3%ABnnec</t>
+          <t>Théophile-Ambroise_Laënnec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théophile-Ambroise Laënnec est un médecin français né le 12 mars 1830 à Nantes et mort le 14 février 1896 à Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile-Ambroise_La%C3%ABnnec</t>
+          <t>Théophile-Ambroise_Laënnec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Théophile-Ambroise Laënnec est le fils d'Ambroise-François Laënnec, professeur à l'École de médecine de Nantes. Il est le petit-fils de Guillaume Laennec et de Louis-Hyacinthe Levesque. Il épouse Lucile Anne Lebreton, petite-fille d'Alexandre Auguste Joubert-Bonnaire.
 Après ses trois années d'étude à l'Hôtel-Dieu de Nantes, il se rend à Strasbourg afin d'étudier l'histopathologie (1854-1858). Il présente sa thèse Recherches sur le développement du tissu osseux en 1858, obtenant son doctorat en médecine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile-Ambroise_La%C3%ABnnec</t>
+          <t>Théophile-Ambroise_Laënnec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rapport sur une "Étude pratique sur l'état actuel de la prophylaxie sanitaire internationale", de M. le Dr Valentin Vignard,... (1889)
 Rapport médico-légal sur une enquête judiciaire motivée par une fausse accusation de viol portée par une hystéroépileptique, présentant un curieux dédoublement de la personne (1888)
